--- a/excel/Combines.xlsx
+++ b/excel/Combines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\CombineGenerator\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\CombineGenerator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D9F3D4-3CA8-416B-9123-0EFD425064C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D007C025-401B-470D-84C2-CB5713FFAF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1071,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
         <v>1006</v>

--- a/excel/Combines.xlsx
+++ b/excel/Combines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\CombineGenerator\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\CombineGenerator\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D007C025-401B-470D-84C2-CB5713FFAF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD06FF6-92AA-4EEA-984F-32E908ADCEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
